--- a/documents/testovacie scenare/TS2-Zobrazenie statistik, fakturacia a vykonanie inventury.xlsx
+++ b/documents/testovacie scenare/TS2-Zobrazenie statistik, fakturacia a vykonanie inventury.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tis\testovacie scenáre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\d\t\tis\2023\sklad\documents\testovacie scenare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC253FA0-9DC7-41E8-BC45-DB408B40A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70BD4FA-E142-4BAC-AEFE-6B5BC80D637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B9AC995-C48A-4D81-9586-0FCD7364C34C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6B9AC995-C48A-4D81-9586-0FCD7364C34C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Predpoklady:</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>3.</t>
-  </si>
-  <si>
-    <t>Dodatočné informácie:</t>
   </si>
   <si>
     <t>4.</t>
@@ -315,9 +312,6 @@
     <t>14.</t>
   </si>
   <si>
-    <t>15.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Používateľ stlačí tlačidlo </t>
     </r>
@@ -375,6 +369,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>9.</t>
   </si>
 </sst>
 </file>
@@ -794,11 +791,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -841,9 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -872,24 +865,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -908,9 +886,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,14 +919,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2904500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2828300</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -981,7 +971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1277,287 +1267,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B99CECF-26F5-4450-9331-183C90F28EAA}">
-  <dimension ref="B1:F23"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="3" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="29" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="2:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="2:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-    </row>
-    <row r="7" spans="2:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>